--- a/Tesis/Resultados/Fundamentacion Ajuste Modelo/Resultados_Rango/AC_ACOSTADO/Sujeto_Posicion_deep_network_1.xlsx
+++ b/Tesis/Resultados/Fundamentacion Ajuste Modelo/Resultados_Rango/AC_ACOSTADO/Sujeto_Posicion_deep_network_1.xlsx
@@ -465,7 +465,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>224</v>
+        <v>70</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -474,12 +474,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -499,7 +499,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>linear</t>
+          <t>softsign</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -515,7 +515,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>210</v>
+        <v>90</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -549,7 +549,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>linear</t>
+          <t>tanh</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -565,7 +565,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>212</v>
+        <v>89</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -574,12 +574,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>100</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -599,7 +599,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>linear</t>
+          <t>tanh</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -615,7 +615,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>213</v>
+        <v>79</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -624,12 +624,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>100</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>linear</t>
+          <t>softsign</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -665,7 +665,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>214</v>
+        <v>78</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -674,12 +674,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>90</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -699,7 +699,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>linear</t>
+          <t>softsign</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -715,7 +715,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>215</v>
+        <v>77</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -724,12 +724,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>80</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>linear</t>
+          <t>softsign</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -765,7 +765,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>216</v>
+        <v>76</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -779,7 +779,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -799,7 +799,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>linear</t>
+          <t>softsign</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -815,7 +815,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>217</v>
+        <v>75</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -824,12 +824,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>60</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -849,7 +849,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>linear</t>
+          <t>softsign</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -865,7 +865,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>218</v>
+        <v>74</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -874,12 +874,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>50</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>linear</t>
+          <t>softsign</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -915,7 +915,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>219</v>
+        <v>73</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -924,12 +924,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -949,7 +949,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>linear</t>
+          <t>softsign</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -965,7 +965,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>220</v>
+        <v>72</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -974,12 +974,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>30</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -999,7 +999,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>linear</t>
+          <t>softsign</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1015,7 +1015,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>221</v>
+        <v>71</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1049,7 +1049,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>linear</t>
+          <t>softsign</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1065,7 +1065,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>222</v>
+        <v>69</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>100</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1099,7 +1099,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>linear</t>
+          <t>softsign</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1115,7 +1115,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>223</v>
+        <v>92</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1124,12 +1124,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>30</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1149,7 +1149,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>linear</t>
+          <t>tanh</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1165,7 +1165,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>211</v>
+        <v>68</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1174,12 +1174,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>90</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>linear</t>
+          <t>softsign</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1215,7 +1215,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>225</v>
+        <v>67</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1224,7 +1224,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>80</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1249,7 +1249,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>linear</t>
+          <t>softsign</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1265,7 +1265,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>232</v>
+        <v>66</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1274,12 +1274,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>70</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>linear</t>
+          <t>softsign</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1315,7 +1315,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>238</v>
+        <v>65</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1324,12 +1324,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>60</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1349,7 +1349,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>linear</t>
+          <t>softsign</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1365,7 +1365,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>237</v>
+        <v>64</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1374,12 +1374,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>50</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1399,7 +1399,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>linear</t>
+          <t>softsign</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1415,7 +1415,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>236</v>
+        <v>63</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1424,12 +1424,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1449,7 +1449,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>linear</t>
+          <t>softsign</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1465,7 +1465,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>235</v>
+        <v>62</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1474,12 +1474,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>30</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1499,7 +1499,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>linear</t>
+          <t>softsign</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1515,7 +1515,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>233</v>
+        <v>61</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1524,12 +1524,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1549,7 +1549,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>linear</t>
+          <t>softsign</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1565,7 +1565,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>234</v>
+        <v>60</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1574,12 +1574,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>linear</t>
+          <t>softsign</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -1615,7 +1615,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>231</v>
+        <v>59</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1624,12 +1624,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>100</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1649,7 +1649,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>linear</t>
+          <t>softsign</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -1665,7 +1665,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>230</v>
+        <v>58</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1674,12 +1674,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>90</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1699,7 +1699,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>linear</t>
+          <t>softsign</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -1715,7 +1715,7 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>229</v>
+        <v>91</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1724,12 +1724,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1749,7 +1749,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>linear</t>
+          <t>tanh</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -1765,7 +1765,7 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>228</v>
+        <v>93</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1774,12 +1774,12 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1799,7 +1799,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>linear</t>
+          <t>tanh</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -1815,7 +1815,7 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>227</v>
+        <v>56</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1824,12 +1824,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>70</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>linear</t>
+          <t>softsign</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -1865,7 +1865,7 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>226</v>
+        <v>108</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1874,7 +1874,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>90</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>linear</t>
+          <t>tanh</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -1915,7 +1915,7 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -1924,7 +1924,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>100</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1954,18 +1954,18 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>6.780265944162868e-08</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>6.78026594416288e-08</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1974,12 +1974,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>90</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2004,18 +2004,18 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>6.780265944162868e-08</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>6.78026594416288e-08</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -2024,12 +2024,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>80</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2054,18 +2054,18 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>6.780265944162868e-08</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>6.78026594416288e-08</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -2074,12 +2074,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>70</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2104,18 +2104,18 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>6.780265944162868e-08</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>6.78026594416288e-08</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -2124,7 +2124,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>60</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -2154,18 +2154,18 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>6.780265944162868e-08</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>6.78026594416288e-08</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -2174,7 +2174,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>50</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -2204,18 +2204,18 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>6.780265944162868e-08</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>6.78026594416288e-08</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -2224,7 +2224,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -2254,18 +2254,18 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>6.780265944162868e-08</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>6.78026594416288e-08</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -2274,7 +2274,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>30</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -2304,18 +2304,18 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>6.780265944162868e-08</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>6.78026594416288e-08</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -2324,7 +2324,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -2354,18 +2354,18 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>6.780265944162868e-08</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>6.78026594416288e-08</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -2374,7 +2374,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -2404,18 +2404,18 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>6.780265944162868e-08</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>6.78026594416288e-08</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -2424,12 +2424,12 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>100</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2454,18 +2454,18 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>6.780265944162868e-08</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>6.78026594416288e-08</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -2474,7 +2474,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>80</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2504,18 +2504,18 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>6.780265944162868e-08</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>6.78026594416288e-08</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -2524,12 +2524,12 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>50</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2554,18 +2554,18 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>6.780265944162868e-08</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>6.78026594416288e-08</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -2574,12 +2574,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>70</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2604,18 +2604,18 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>6.780265944162868e-08</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>6.78026594416288e-08</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -2624,7 +2624,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>60</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2654,18 +2654,18 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>6.780265944162868e-08</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>6.78026594416288e-08</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -2674,7 +2674,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>50</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2704,18 +2704,18 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>6.780265944162868e-08</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>6.78026594416288e-08</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -2724,7 +2724,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2754,18 +2754,18 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>6.780265944162868e-08</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>6.78026594416288e-08</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -2774,7 +2774,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>30</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2804,18 +2804,18 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>6.780265944162868e-08</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>6.78026594416288e-08</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -2824,7 +2824,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2854,18 +2854,18 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>6.780265944162868e-08</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>6.78026594416288e-08</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -2879,7 +2879,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2904,18 +2904,18 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>6.780265944162868e-08</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>6.78026594416288e-08</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -2924,7 +2924,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>100</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2954,18 +2954,18 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>6.780265944162868e-08</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>6.78026594416288e-08</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -2974,7 +2974,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>90</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -3004,18 +3004,18 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>6.780265944162868e-08</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>6.78026594416288e-08</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -3024,7 +3024,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>70</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -3054,12 +3054,12 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>6.780265944162868e-08</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>6.78026594416288e-08</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -3104,18 +3104,18 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>6.780265944162868e-08</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>6.78026594416288e-08</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -3124,7 +3124,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>80</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -3149,17 +3149,17 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>tanh</t>
+          <t>softsign</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>6.780265944162868e-08</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>6.78026594416288e-08</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -3204,18 +3204,18 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>6.780265944162868e-08</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>6.78026594416288e-08</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>119</v>
+        <v>55</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -3224,12 +3224,12 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>60</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -3249,23 +3249,23 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>tanh</t>
+          <t>softsign</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>6.780265944162868e-08</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>6.78026594416288e-08</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>118</v>
+        <v>224</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -3274,12 +3274,12 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>50</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -3299,23 +3299,23 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>tanh</t>
+          <t>linear</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>6.780265944162868e-08</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>6.78026594416288e-08</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>98</v>
+        <v>211</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -3324,7 +3324,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -3349,23 +3349,23 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>tanh</t>
+          <t>linear</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>6.780265944162868e-08</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>6.78026594416288e-08</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>99</v>
+        <v>212</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -3374,7 +3374,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>30</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -3399,23 +3399,23 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>tanh</t>
+          <t>linear</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>6.780265944162868e-08</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>6.78026594416288e-08</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>43</v>
+        <v>213</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -3429,7 +3429,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3449,23 +3449,23 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>softsign</t>
+          <t>linear</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>0.3659943982789441</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>0.3837900746906394</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>42</v>
+        <v>214</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -3474,12 +3474,12 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>50</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3499,23 +3499,23 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>softsign</t>
+          <t>linear</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>0.36583164912012534</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>0.38360216599616886</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>41</v>
+        <v>215</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -3524,12 +3524,12 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>60</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3549,23 +3549,23 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>softsign</t>
+          <t>linear</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>0.365156532648874</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>0.382822958290704</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>45</v>
+        <v>216</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -3574,12 +3574,12 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>70</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3599,23 +3599,23 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>softsign</t>
+          <t>linear</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>0.36482032414806553</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>0.38243507766398055</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>44</v>
+        <v>217</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -3624,12 +3624,12 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>80</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3649,23 +3649,23 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>softsign</t>
+          <t>linear</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>0.3647055139456907</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>0.3823026473441658</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -3674,12 +3674,12 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>90</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3704,18 +3704,18 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>0.3644347503213618</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>0.38199037980708883</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>84</v>
+        <v>219</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -3724,12 +3724,12 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>100</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3749,23 +3749,23 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>tanh</t>
+          <t>linear</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>0.3644238693280619</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>0.3819778324100217</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>83</v>
+        <v>220</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -3774,12 +3774,12 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -3799,23 +3799,23 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>tanh</t>
+          <t>linear</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>0.36440798003035924</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>0.3819595099022256</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>85</v>
+        <v>221</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -3824,12 +3824,12 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -3849,23 +3849,23 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>tanh</t>
+          <t>linear</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>0.3643510551639956</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>0.38189386984585727</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -3874,12 +3874,12 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>30</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -3904,18 +3904,18 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>0.36421779791343567</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>0.3817402232023635</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>82</v>
+        <v>223</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -3924,12 +3924,12 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -3949,23 +3949,23 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>tanh</t>
+          <t>linear</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>0.3640959467879265</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>0.38159974295959626</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>202</v>
+        <v>225</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -3974,12 +3974,12 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>60</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -4004,18 +4004,18 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>0.36383377445857157</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>0.38129753731944593</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -4024,7 +4024,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>100</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -4054,18 +4054,18 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>0.3635102459634469</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>0.38092469809887797</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>81</v>
+        <v>226</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -4074,12 +4074,12 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>70</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -4099,23 +4099,23 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>tanh</t>
+          <t>linear</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>0.3630310615378199</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>0.380372664187687</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -4124,12 +4124,12 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>80</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -4154,18 +4154,18 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>0.36285546928726475</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>0.3801704323827268</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>206</v>
+        <v>228</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -4174,12 +4174,12 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>90</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -4204,18 +4204,18 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>0.3622974988637251</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>0.3795280076851985</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>86</v>
+        <v>229</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -4224,12 +4224,12 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>100</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -4249,23 +4249,23 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>tanh</t>
+          <t>linear</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>0.3592261973324497</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>0.37599716578242054</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -4279,7 +4279,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -4304,18 +4304,18 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>0.346780805039192</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>0.36177984410447495</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>208</v>
+        <v>231</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -4324,12 +4324,12 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -4354,18 +4354,18 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>0.3408748965374267</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>0.3550821164684498</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>46</v>
+        <v>232</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -4374,12 +4374,12 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>30</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -4399,23 +4399,23 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>softsign</t>
+          <t>linear</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>0.33663947863803045</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>0.3502976380331314</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>128</v>
+        <v>233</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -4424,12 +4424,12 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -4449,23 +4449,23 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>sigmoid</t>
+          <t>linear</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>0.3233992821867361</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>0.33543880095931494</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>126</v>
+        <v>234</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -4474,12 +4474,12 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>50</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -4499,23 +4499,23 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>sigmoid</t>
+          <t>linear</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>0.32333209299337806</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>0.33536376567366527</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>122</v>
+        <v>235</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -4524,12 +4524,12 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>60</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -4549,23 +4549,23 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>sigmoid</t>
+          <t>linear</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>0.32327642506930326</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>0.33530159982411345</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>137</v>
+        <v>236</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -4574,12 +4574,12 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>70</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -4599,23 +4599,23 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>sigmoid</t>
+          <t>linear</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>0.32326827428670246</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>0.3352924978383841</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>170</v>
+        <v>237</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -4624,12 +4624,12 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>80</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -4649,23 +4649,23 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>hard_sigmoid</t>
+          <t>linear</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>0.3232663571152896</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>0.33529035693924925</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>127</v>
+        <v>238</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
@@ -4674,12 +4674,12 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>90</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -4699,23 +4699,23 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>sigmoid</t>
+          <t>linear</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>0.3232546271734546</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>0.3352772582155549</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>133</v>
+        <v>54</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
@@ -4724,7 +4724,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>50</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -4749,23 +4749,23 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>sigmoid</t>
+          <t>softsign</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>0.3232482461169709</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>0.335270132592044</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>139</v>
+        <v>210</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -4774,7 +4774,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -4799,23 +4799,23 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>sigmoid</t>
+          <t>linear</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>0.32324229356196227</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>0.3352634854988562</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>125</v>
+        <v>51</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -4824,12 +4824,12 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -4849,23 +4849,23 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>sigmoid</t>
+          <t>softsign</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>0.32321424120656156</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>0.33523216040710174</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>129</v>
+        <v>52</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -4874,12 +4874,12 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>30</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -4899,23 +4899,23 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>sigmoid</t>
+          <t>softsign</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>0.32318896446285594</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>0.335203935287872</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>123</v>
+        <v>50</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
@@ -4924,12 +4924,12 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -4949,23 +4949,23 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>sigmoid</t>
+          <t>softsign</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>0.32318720547693</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>0.33520197114630185</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>138</v>
+        <v>49</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
@@ -4974,12 +4974,12 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>100</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -4999,23 +4999,23 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>sigmoid</t>
+          <t>softsign</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>0.3231667232725383</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>0.33517910022641106</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>169</v>
+        <v>48</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
@@ -5024,7 +5024,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>90</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -5049,23 +5049,23 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>hard_sigmoid</t>
+          <t>softsign</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>0.32316326088170955</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>0.33517523407130756</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>163</v>
+        <v>53</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
@@ -5079,7 +5079,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -5099,23 +5099,23 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>hard_sigmoid</t>
+          <t>softsign</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>0.3231608288759956</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>0.3351725184647315</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>167</v>
+        <v>43</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
@@ -5124,7 +5124,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -5149,23 +5149,23 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>hard_sigmoid</t>
+          <t>softsign</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>0.3231581881514273</t>
+          <t>0.36599758392818915</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>0.3351695698055915</t>
+          <t>0.38379375307008756</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>136</v>
+        <v>42</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
@@ -5174,12 +5174,12 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>30</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -5199,23 +5199,23 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>sigmoid</t>
+          <t>softsign</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>0.32311776992902186</t>
+          <t>0.3658400893095775</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>0.335124439120359</t>
+          <t>0.3836119103267045</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>132</v>
+        <v>44</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
@@ -5224,12 +5224,12 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>50</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -5249,23 +5249,23 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>sigmoid</t>
+          <t>softsign</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>0.3230860484110973</t>
+          <t>0.3652534385146908</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>0.3350890200322641</t>
+          <t>0.38293477808628207</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>168</v>
+        <v>45</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
@@ -5274,7 +5274,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>60</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -5299,23 +5299,23 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>hard_sigmoid</t>
+          <t>softsign</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>0.32304308570927837</t>
+          <t>0.3651701366811388</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>0.33504105074125845</t>
+          <t>0.38283865544893275</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>166</v>
+        <v>41</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
@@ -5324,7 +5324,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -5349,23 +5349,23 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>hard_sigmoid</t>
+          <t>softsign</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>0.3230003673164934</t>
+          <t>0.3651546126732466</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>0.33499335570342254</t>
+          <t>0.3828207429207681</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>165</v>
+        <v>84</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
@@ -5374,7 +5374,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>50</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -5399,23 +5399,23 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>hard_sigmoid</t>
+          <t>tanh</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>0.32294129105156266</t>
+          <t>0.3644259709213195</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>0.3349273995408203</t>
+          <t>0.38198025584941375</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>179</v>
+        <v>85</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
@@ -5424,12 +5424,12 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>60</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -5449,23 +5449,23 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>hard_sigmoid</t>
+          <t>tanh</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>0.3229233769430487</t>
+          <t>0.3644183665798988</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>0.334907399748072</t>
+          <t>0.3819714869699608</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>178</v>
+        <v>204</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
@@ -5474,12 +5474,12 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>50</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -5499,23 +5499,23 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>hard_sigmoid</t>
+          <t>linear</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>0.32289797736987835</t>
+          <t>0.3644005505185558</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>0.3348790434239682</t>
+          <t>0.38195094275491676</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>149</v>
+        <v>83</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
@@ -5524,12 +5524,12 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -5549,23 +5549,23 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>sigmoid</t>
+          <t>tanh</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>0.3228912659934255</t>
+          <t>0.3643094917681144</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>0.33487155086645004</t>
+          <t>0.38184594508227554</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>121</v>
+        <v>203</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
@@ -5574,7 +5574,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -5599,23 +5599,23 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>sigmoid</t>
+          <t>linear</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>0.32288551665834997</t>
+          <t>0.36418908534617556</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>0.3348651323574371</t>
+          <t>0.3817071196415112</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>135</v>
+        <v>82</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
@@ -5624,12 +5624,12 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>30</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -5649,23 +5649,23 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>sigmoid</t>
+          <t>tanh</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>0.3228591536455574</t>
+          <t>0.36418777715298783</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>0.3348357012537755</t>
+          <t>0.38170561140623177</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>134</v>
+        <v>205</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
@@ -5674,12 +5674,12 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>60</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -5699,23 +5699,23 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>sigmoid</t>
+          <t>linear</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>0.3228556071229448</t>
+          <t>0.3641099401852945</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>0.3348317420344626</t>
+          <t>0.3816158749964749</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>164</v>
+        <v>206</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
@@ -5724,7 +5724,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>70</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -5749,23 +5749,23 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>hard_sigmoid</t>
+          <t>linear</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>0.3228539099162318</t>
+          <t>0.36316571445711465</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>0.33482984733319304</t>
+          <t>0.3805277657678311</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>162</v>
+        <v>202</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
@@ -5799,23 +5799,23 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>hard_sigmoid</t>
+          <t>linear</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>0.32285003938931367</t>
+          <t>0.3631503518726682</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>0.33482552642313956</t>
+          <t>0.38051006930774084</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>175</v>
+        <v>207</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
@@ -5824,12 +5824,12 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>80</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -5849,23 +5849,23 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>hard_sigmoid</t>
+          <t>linear</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>0.3228223085184311</t>
+          <t>0.36308210731053886</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>0.33479456907892463</t>
+          <t>0.3804314598172711</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>124</v>
+        <v>81</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
@@ -5874,7 +5874,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -5899,23 +5899,23 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>sigmoid</t>
+          <t>tanh</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>0.3228024136663546</t>
+          <t>0.362916642893835</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>0.33477235985168174</t>
+          <t>0.38024088342580054</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>173</v>
+        <v>87</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
@@ -5924,12 +5924,12 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>80</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -5949,23 +5949,23 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>hard_sigmoid</t>
+          <t>tanh</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>0.3227129402858749</t>
+          <t>0.3628375772303335</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>0.334672481937262</t>
+          <t>0.3801498275419168</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>145</v>
+        <v>201</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
@@ -5974,12 +5974,12 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -5999,23 +5999,23 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>sigmoid</t>
+          <t>linear</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>0.32270685534399957</t>
+          <t>0.361310702058676</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>0.33466568963347143</t>
+          <t>0.37839258085432903</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>176</v>
+        <v>86</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
@@ -6029,7 +6029,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -6049,23 +6049,23 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>hard_sigmoid</t>
+          <t>tanh</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>0.3226777997103015</t>
+          <t>0.35769116869310125</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>0.3346332567529512</t>
+          <t>0.37423581615132806</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>177</v>
+        <v>46</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
@@ -6074,12 +6074,12 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>70</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -6099,23 +6099,23 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>hard_sigmoid</t>
+          <t>softsign</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>0.3226702628617162</t>
+          <t>0.3556967030505681</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>0.3346248439786706</t>
+          <t>0.3719505999656293</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>148</v>
+        <v>47</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
@@ -6124,12 +6124,12 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>80</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -6149,23 +6149,23 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>sigmoid</t>
+          <t>softsign</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>0.32266482040793437</t>
+          <t>0.34298904568037175</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>0.33461876903625376</t>
+          <t>0.3574761741492879</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>146</v>
+        <v>88</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
@@ -6174,12 +6174,12 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>90</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -6199,23 +6199,23 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>sigmoid</t>
+          <t>tanh</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>0.3226427797878557</t>
+          <t>0.33477341266950206</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>0.3345941672338561</t>
+          <t>0.3481945563219952</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>147</v>
+        <v>208</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
@@ -6224,12 +6224,12 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>90</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -6249,23 +6249,23 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>sigmoid</t>
+          <t>linear</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>0.32263443219550203</t>
+          <t>0.33213613863121466</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>0.3345848497296596</t>
+          <t>0.34522734981841297</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>172</v>
+        <v>130</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
@@ -6274,7 +6274,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -6299,23 +6299,23 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>hard_sigmoid</t>
+          <t>sigmoid</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>0.32260271923939676</t>
+          <t>0.3245465980541972</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>0.33454945253650725</t>
+          <t>0.33672065887356595</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>174</v>
+        <v>126</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
@@ -6324,12 +6324,12 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>70</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -6349,23 +6349,23 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>hard_sigmoid</t>
+          <t>sigmoid</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>0.32255367228849047</t>
+          <t>0.32349624864670845</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>0.3344947091721612</t>
+          <t>0.33554709720559106</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>185</v>
+        <v>139</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
@@ -6374,12 +6374,12 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>100</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -6399,23 +6399,23 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>hard_sigmoid</t>
+          <t>sigmoid</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>0.32254031143029765</t>
+          <t>0.3233714747208806</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>0.3344797968915637</t>
+          <t>0.3354077458042518</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>189</v>
+        <v>128</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
@@ -6424,12 +6424,12 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>90</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -6449,23 +6449,23 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>hard_sigmoid</t>
+          <t>sigmoid</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>0.32251575585267456</t>
+          <t>0.32336586274729673</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>0.33445239036869107</t>
+          <t>0.3354014784727613</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>183</v>
+        <v>134</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
@@ -6474,12 +6474,12 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>50</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -6499,23 +6499,23 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>hard_sigmoid</t>
+          <t>sigmoid</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>0.3224175217264784</t>
+          <t>0.32334862679284404</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>0.3343427559350406</t>
+          <t>0.3353822298880681</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>186</v>
+        <v>129</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
@@ -6524,12 +6524,12 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>100</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -6549,23 +6549,23 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>hard_sigmoid</t>
+          <t>sigmoid</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>0.3224156483578493</t>
+          <t>0.32334484656497836</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>0.3343406652327802</t>
+          <t>0.33537800827770037</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>187</v>
+        <v>127</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
@@ -6579,7 +6579,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -6599,23 +6599,23 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>hard_sigmoid</t>
+          <t>sigmoid</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>0.3223928388475589</t>
+          <t>0.3233385503907176</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>0.33431520976691054</t>
+          <t>0.33537097698255935</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>188</v>
+        <v>125</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
@@ -6624,12 +6624,12 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>60</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -6649,23 +6649,23 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>hard_sigmoid</t>
+          <t>sigmoid</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>0.32238442606377465</t>
+          <t>0.32333492811237696</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>0.33430582118635443</t>
+          <t>0.33536693179323895</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>181</v>
+        <v>137</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
@@ -6674,12 +6674,12 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>80</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -6699,23 +6699,23 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>hard_sigmoid</t>
+          <t>sigmoid</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>0.32237796199755314</t>
+          <t>0.3232709917988313</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>0.33429860739325434</t>
+          <t>0.3352955324804931</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>156</v>
+        <v>124</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
@@ -6724,12 +6724,12 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>50</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -6754,18 +6754,18 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>0.3223383954500673</t>
+          <t>0.32326982476022953</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>0.3342544524989533</t>
+          <t>0.3352942292493397</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>184</v>
+        <v>136</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
@@ -6774,12 +6774,12 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>70</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -6799,23 +6799,23 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>hard_sigmoid</t>
+          <t>sigmoid</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>0.32225935815062384</t>
+          <t>0.3232556593937541</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>0.33416625337759265</t>
+          <t>0.3352784108825052</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
@@ -6824,12 +6824,12 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>90</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -6854,18 +6854,18 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>0.3222521038038688</t>
+          <t>0.32321381109813724</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>0.3341581583748743</t>
+          <t>0.3352316801248881</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>199</v>
+        <v>167</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
@@ -6874,12 +6874,12 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>80</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -6904,18 +6904,18 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>0.3222384609124421</t>
+          <t>0.3232003451208541</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>0.33414293461772204</t>
+          <t>0.33521664336537194</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
@@ -6924,12 +6924,12 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>100</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -6949,23 +6949,23 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>sigmoid</t>
+          <t>hard_sigmoid</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>0.3222274511669106</t>
+          <t>0.32318386729495857</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>0.33413064923031677</t>
+          <t>0.3351982436293153</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
@@ -6974,7 +6974,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -7004,18 +7004,18 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>0.3222200633313982</t>
+          <t>0.3231441500796285</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>0.33412240545931426</t>
+          <t>0.3351538948502797</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>143</v>
+        <v>164</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
@@ -7024,12 +7024,12 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>50</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -7049,23 +7049,23 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>sigmoid</t>
+          <t>hard_sigmoid</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>0.32220798519977406</t>
+          <t>0.3231382520107742</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>0.334108928080967</t>
+          <t>0.3351473090953418</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
@@ -7074,12 +7074,12 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>70</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -7099,23 +7099,23 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>sigmoid</t>
+          <t>hard_sigmoid</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>0.32217829523562663</t>
+          <t>0.3231195550796746</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>0.33407579904382756</t>
+          <t>0.3351264323784593</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>198</v>
+        <v>168</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
@@ -7129,7 +7129,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -7154,18 +7154,18 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>0.3221719162177646</t>
+          <t>0.3231128506359146</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>0.33406868121848043</t>
+          <t>0.335118946364271</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>157</v>
+        <v>123</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
@@ -7174,12 +7174,12 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -7204,18 +7204,18 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>0.3221556253005375</t>
+          <t>0.3229819921519592</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>0.3340505036618235</t>
+          <t>0.3349728403047526</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>196</v>
+        <v>162</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
@@ -7224,12 +7224,12 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>30</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -7254,18 +7254,18 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>0.32214592641040296</t>
+          <t>0.3229816619329667</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>0.3340396816512891</t>
+          <t>0.3349724716262261</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>197</v>
+        <v>165</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
@@ -7274,12 +7274,12 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>60</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -7304,18 +7304,18 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>0.32212537899796234</t>
+          <t>0.32295104239920625</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>0.3340167551212113</t>
+          <t>0.334938286316292</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>159</v>
+        <v>179</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
@@ -7329,7 +7329,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -7349,23 +7349,23 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>sigmoid</t>
+          <t>hard_sigmoid</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>0.32212137076380465</t>
+          <t>0.32293181332710413</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>0.33401228282621165</t>
+          <t>0.33491681832204034</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>142</v>
+        <v>178</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
@@ -7374,12 +7374,12 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>90</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -7399,23 +7399,23 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>sigmoid</t>
+          <t>hard_sigmoid</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>0.3220322571594735</t>
+          <t>0.3229295466917388</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>0.3339128552543328</t>
+          <t>0.33491428779234966</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
@@ -7424,12 +7424,12 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>80</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -7454,18 +7454,18 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>0.3220188284300261</t>
+          <t>0.32284438295879253</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>0.3338978728419787</t>
+          <t>0.3348192118194434</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>192</v>
+        <v>133</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
@@ -7474,12 +7474,12 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -7499,23 +7499,23 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>hard_sigmoid</t>
+          <t>sigmoid</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>0.32201032012022723</t>
+          <t>0.3228233210816044</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>0.3338883802089148</t>
+          <t>0.334795699442446</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>195</v>
+        <v>149</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
@@ -7524,12 +7524,12 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>100</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -7549,23 +7549,23 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>hard_sigmoid</t>
+          <t>sigmoid</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>0.3219885290684188</t>
+          <t>0.3227939597159991</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>0.33386406842289196</t>
+          <t>0.3347629225467056</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>194</v>
+        <v>148</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
@@ -7574,12 +7574,12 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>90</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -7599,23 +7599,23 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>hard_sigmoid</t>
+          <t>sigmoid</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>0.32193305330699773</t>
+          <t>0.3227798299925292</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>0.3338021770823897</t>
+          <t>0.3347471493970095</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>182</v>
+        <v>143</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
@@ -7624,7 +7624,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -7649,23 +7649,23 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>hard_sigmoid</t>
+          <t>sigmoid</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>0.32191425243506655</t>
+          <t>0.32276575503656474</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>0.33378120251450716</t>
+          <t>0.3347314375444962</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
@@ -7674,12 +7674,12 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>30</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -7704,18 +7704,18 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>0.32190265943331164</t>
+          <t>0.3227455015343136</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>0.3337682693085905</t>
+          <t>0.33470882886954334</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>171</v>
+        <v>135</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
@@ -7724,7 +7724,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>60</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -7749,23 +7749,23 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>hard_sigmoid</t>
+          <t>sigmoid</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>0.3217977047477667</t>
+          <t>0.32273069342556904</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>0.33365118628001644</t>
+          <t>0.33469229901292363</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
@@ -7774,12 +7774,12 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>30</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -7804,18 +7804,18 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>0.3217038507525279</t>
+          <t>0.3227182729015882</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>0.3335464941860854</t>
+          <t>0.33467843448301166</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>153</v>
+        <v>177</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
@@ -7824,12 +7824,12 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>80</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -7849,23 +7849,23 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>sigmoid</t>
+          <t>hard_sigmoid</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>0.3216406903322999</t>
+          <t>0.322689898370095</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>0.33347604407832615</t>
+          <t>0.334646761603505</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
@@ -7874,12 +7874,12 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>70</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -7904,18 +7904,18 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>0.3216240767071723</t>
+          <t>0.3226872356183471</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>0.33345751351475933</t>
+          <t>0.33464378935804573</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
@@ -7924,12 +7924,12 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>70</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -7954,18 +7954,18 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>0.321621092829582</t>
+          <t>0.32261214862266413</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>0.333454185370287</t>
+          <t>0.33455997728927533</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
@@ -7974,12 +7974,12 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>70</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -7999,23 +7999,23 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>sigmoid</t>
+          <t>hard_sigmoid</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>0.3212582947703599</t>
+          <t>0.32259204176508166</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>0.333049582309653</t>
+          <t>0.3345375347937923</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
@@ -8024,12 +8024,12 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>50</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -8054,18 +8054,18 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>0.31994415074151267</t>
+          <t>0.32255586837099615</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>0.33158488929048324</t>
+          <t>0.33449716027084647</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>140</v>
+        <v>187</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
@@ -8074,7 +8074,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>80</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -8099,23 +8099,23 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>sigmoid</t>
+          <t>hard_sigmoid</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>0.3196195659580259</t>
+          <t>0.3225519708012189</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>0.33122333143845173</t>
+          <t>0.3344928101053676</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>40</v>
+        <v>145</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
@@ -8124,12 +8124,12 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>60</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -8149,23 +8149,23 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>softsign</t>
+          <t>sigmoid</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>0.3192393756161149</t>
+          <t>0.3225464180527008</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>0.33079994029467497</t>
+          <t>0.33448661257867374</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>207</v>
+        <v>189</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
@@ -8174,12 +8174,12 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>100</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -8199,23 +8199,23 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>linear</t>
+          <t>hard_sigmoid</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>0.317727066879311</t>
+          <t>0.322529130418012</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>0.3291169196823164</t>
+          <t>0.3344673176842337</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>150</v>
+        <v>188</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
@@ -8224,12 +8224,12 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>90</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -8249,23 +8249,23 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>sigmoid</t>
+          <t>hard_sigmoid</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>0.3104276020779057</t>
+          <t>0.32251400556636656</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>0.32101854220018905</t>
+          <t>0.3344504368895981</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>87</v>
+        <v>132</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
@@ -8274,12 +8274,12 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>30</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -8299,23 +8299,23 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>tanh</t>
+          <t>sigmoid</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>0.29901075913953806</t>
+          <t>0.32248972317456387</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>0.3084328803125845</t>
+          <t>0.3344233357804728</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
@@ -8324,12 +8324,12 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -8349,23 +8349,23 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>tanh</t>
+          <t>sigmoid</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>0.26832527313283927</t>
+          <t>0.3224856546709234</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>0.27505828682662414</t>
+          <t>0.3344187950483697</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>120</v>
+        <v>159</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
@@ -8374,12 +8374,12 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>100</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -8404,18 +8404,18 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>0.2662663928087867</t>
+          <t>0.32244527919202665</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>0.27284098583618777</t>
+          <t>0.33437373393574926</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>130</v>
+        <v>175</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
@@ -8424,7 +8424,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>60</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -8449,23 +8449,23 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>sigmoid</t>
+          <t>hard_sigmoid</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>0.2640413790954635</t>
+          <t>0.32242604427828103</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>0.2704477076229216</t>
+          <t>0.33435226724247524</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>191</v>
+        <v>121</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
@@ -8479,7 +8479,7 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -8499,23 +8499,23 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>hard_sigmoid</t>
+          <t>sigmoid</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>0.2638828001355789</t>
+          <t>0.3224179055470855</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>0.27027725199912805</t>
+          <t>0.3343431842838717</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>209</v>
+        <v>171</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
@@ -8524,12 +8524,12 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -8549,23 +8549,23 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>linear</t>
+          <t>hard_sigmoid</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>0.25777450185792494</t>
+          <t>0.32234377282671917</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>0.2637230335192201</t>
+          <t>0.33426045339093224</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>160</v>
+        <v>183</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
@@ -8574,12 +8574,12 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -8604,18 +8604,18 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>0.25615131828868537</t>
+          <t>0.32233424046581316</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>0.26198509338248377</t>
+          <t>0.3342498157536028</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>47</v>
+        <v>156</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
@@ -8624,12 +8624,12 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>70</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -8649,23 +8649,23 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>softsign</t>
+          <t>sigmoid</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>0.24945358810379725</t>
+          <t>0.32233418987087464</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>0.25483005737413345</t>
+          <t>0.3342497592923802</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>190</v>
+        <v>153</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
@@ -8674,7 +8674,7 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -8699,23 +8699,23 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>hard_sigmoid</t>
+          <t>sigmoid</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>0.23490381326047954</t>
+          <t>0.3223151995790284</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>0.2393734009033408</t>
+          <t>0.3342285672960307</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>88</v>
+        <v>131</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
@@ -8724,12 +8724,12 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -8749,23 +8749,23 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>tanh</t>
+          <t>sigmoid</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>0.21458432470425573</t>
+          <t>0.322314932840616</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>0.21797203867446407</t>
+          <t>0.33422826963444907</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>89</v>
+        <v>199</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
@@ -8779,7 +8779,7 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -8799,23 +8799,23 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>tanh</t>
+          <t>hard_sigmoid</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>0.13631124530843072</t>
+          <t>0.3223137673478132</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>0.1371650395116082</t>
+          <t>0.3342269690259266</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>48</v>
+        <v>185</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
@@ -8824,12 +8824,12 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>60</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -8849,23 +8849,23 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>softsign</t>
+          <t>hard_sigmoid</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>0.1211509077633001</t>
+          <t>0.32230894130075205</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>0.12174891556572062</t>
+          <t>0.3342215835062599</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>49</v>
+        <v>158</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
@@ -8874,12 +8874,12 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>90</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -8899,23 +8899,23 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>softsign</t>
+          <t>sigmoid</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>0.03292236228936196</t>
+          <t>0.3223016041671375</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>0.03293426468208281</t>
+          <t>0.3342133958313341</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>79</v>
+        <v>157</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
@@ -8924,7 +8924,7 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>80</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -8949,23 +8949,23 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>softsign</t>
+          <t>sigmoid</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>-6.780265947668998e-08</t>
+          <t>0.3222270524539421</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>-6.780265947669007e-08</t>
+          <t>0.3341302043223782</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>59</v>
+        <v>197</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
@@ -8974,12 +8974,12 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>80</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -8999,23 +8999,23 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>softsign</t>
+          <t>hard_sigmoid</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>-6.780265947668998e-08</t>
+          <t>0.32222442539397533</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>-6.780265947669007e-08</t>
+          <t>0.3341272728938696</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>58</v>
+        <v>184</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
@@ -9024,12 +9024,12 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>50</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
@@ -9049,23 +9049,23 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>softsign</t>
+          <t>hard_sigmoid</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>-6.780265947668998e-08</t>
+          <t>0.3221917858122975</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>-6.780265947669007e-08</t>
+          <t>0.33409085218469603</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>56</v>
+        <v>173</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
@@ -9074,7 +9074,7 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -9099,23 +9099,23 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>softsign</t>
+          <t>hard_sigmoid</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>-6.780265947668998e-08</t>
+          <t>0.32218870115792564</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>-6.780265947669007e-08</t>
+          <t>0.3340874102332042</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>55</v>
+        <v>195</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
@@ -9129,7 +9129,7 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -9149,23 +9149,23 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>softsign</t>
+          <t>hard_sigmoid</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>-6.780265947668998e-08</t>
+          <t>0.32218106084747905</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>-6.780265947669007e-08</t>
+          <t>0.3340788849744963</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>53</v>
+        <v>196</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
@@ -9174,12 +9174,12 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>70</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
@@ -9199,23 +9199,23 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>softsign</t>
+          <t>hard_sigmoid</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>-6.780265947668998e-08</t>
+          <t>0.3221775348271528</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>-6.780265947669007e-08</t>
+          <t>0.33407495056436587</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>54</v>
+        <v>155</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
@@ -9224,12 +9224,12 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>60</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
@@ -9249,23 +9249,23 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>softsign</t>
+          <t>sigmoid</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>-6.780265947668998e-08</t>
+          <t>0.32212825789911004</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>-6.780265947669007e-08</t>
+          <t>0.334019967340501</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>61</v>
+        <v>144</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
@@ -9274,7 +9274,7 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>50</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -9299,23 +9299,23 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>softsign</t>
+          <t>sigmoid</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>-6.780265947668998e-08</t>
+          <t>0.3221212781590835</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>-6.780265947669007e-08</t>
+          <t>0.33401217950015727</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>52</v>
+        <v>198</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
@@ -9324,12 +9324,12 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>90</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
@@ -9349,23 +9349,23 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>softsign</t>
+          <t>hard_sigmoid</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>-6.780265947668998e-08</t>
+          <t>0.32211898823997753</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>-6.780265947669007e-08</t>
+          <t>0.33400962446731725</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>51</v>
+        <v>172</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
@@ -9374,7 +9374,7 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>30</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
@@ -9399,23 +9399,23 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>softsign</t>
+          <t>hard_sigmoid</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>-6.780265947668998e-08</t>
+          <t>0.3220989439264594</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>-6.780265947669007e-08</t>
+          <t>0.33398725971737164</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
-        <v>50</v>
+        <v>154</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
@@ -9424,12 +9424,12 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>50</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -9449,23 +9449,23 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>softsign</t>
+          <t>sigmoid</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>-6.780265947668998e-08</t>
+          <t>0.3219604904176539</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t>-6.780265947669007e-08</t>
+          <t>0.33383278689129026</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>78</v>
+        <v>152</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
@@ -9474,7 +9474,7 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>30</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -9499,23 +9499,23 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>softsign</t>
+          <t>sigmoid</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>-6.780265947668998e-08</t>
+          <t>0.32190488628952174</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>-6.780265947669007e-08</t>
+          <t>0.3337707535912335</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>60</v>
+        <v>194</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
@@ -9524,12 +9524,12 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>50</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
@@ -9549,23 +9549,23 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>softsign</t>
+          <t>hard_sigmoid</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>-6.780265947668998e-08</t>
+          <t>0.3218793196596708</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>-6.780265947669007e-08</t>
+          <t>0.33374223167672956</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>57</v>
+        <v>181</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
@@ -9574,12 +9574,12 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
@@ -9599,23 +9599,23 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>softsign</t>
+          <t>hard_sigmoid</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>-6.780265947668998e-08</t>
+          <t>0.3217750065338921</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>-6.780265947669007e-08</t>
+          <t>0.3336258662686272</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>62</v>
+        <v>192</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
@@ -9629,7 +9629,7 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
@@ -9649,23 +9649,23 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>softsign</t>
+          <t>hard_sigmoid</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>-6.780265947668998e-08</t>
+          <t>0.32163533498521013</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>-6.780265947669007e-08</t>
+          <t>0.33347007078834795</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>70</v>
+        <v>191</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
@@ -9674,7 +9674,7 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -9699,23 +9699,23 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>softsign</t>
+          <t>hard_sigmoid</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>-6.780265947668998e-08</t>
+          <t>0.3215718609737049</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>-6.780265947669007e-08</t>
+          <t>0.33339927438445344</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>77</v>
+        <v>161</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
@@ -9724,12 +9724,12 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
@@ -9749,23 +9749,23 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>softsign</t>
+          <t>hard_sigmoid</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>-6.780265947668998e-08</t>
+          <t>0.32156055258252947</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>-6.780265947669007e-08</t>
+          <t>0.3333866617901687</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
-        <v>76</v>
+        <v>193</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
@@ -9774,7 +9774,7 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -9799,23 +9799,23 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>softsign</t>
+          <t>hard_sigmoid</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>-6.780265947668998e-08</t>
+          <t>0.32156038946228765</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>-6.780265947669007e-08</t>
+          <t>0.33338647985792624</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>75</v>
+        <v>182</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
@@ -9824,12 +9824,12 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>30</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
@@ -9849,23 +9849,23 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>softsign</t>
+          <t>hard_sigmoid</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>-6.780265947668998e-08</t>
+          <t>0.3213457502415369</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>-6.780265947669007e-08</t>
+          <t>0.3331471055964227</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
-        <v>74</v>
+        <v>151</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
@@ -9874,7 +9874,7 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -9899,23 +9899,23 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>softsign</t>
+          <t>sigmoid</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>-6.780265947668998e-08</t>
+          <t>0.3201018886990686</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>-6.780265947669007e-08</t>
+          <t>0.3317606251942602</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
-        <v>63</v>
+        <v>190</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
@@ -9924,12 +9924,12 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
@@ -9949,23 +9949,23 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>softsign</t>
+          <t>hard_sigmoid</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>-6.780265947668998e-08</t>
+          <t>0.3197175182032593</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>-6.780265947669007e-08</t>
+          <t>0.3313324325006215</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
@@ -9974,12 +9974,12 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
@@ -10004,18 +10004,18 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>-6.780265947668998e-08</t>
+          <t>0.31923755842238605</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>-6.780265947669007e-08</t>
+          <t>0.33079791688922416</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
-        <v>71</v>
+        <v>160</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
@@ -10024,12 +10024,12 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
@@ -10049,23 +10049,23 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>softsign</t>
+          <t>hard_sigmoid</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>-6.780265947668998e-08</t>
+          <t>0.30609086420270554</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>-6.780265947669007e-08</t>
+          <t>0.3162264290775035</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
-        <v>73</v>
+        <v>200</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
@@ -10074,12 +10074,12 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
@@ -10099,23 +10099,23 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>softsign</t>
+          <t>linear</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>-6.780265947668998e-08</t>
+          <t>0.28656289812129443</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>-6.780265947669007e-08</t>
+          <t>0.2948176213592201</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
-        <v>69</v>
+        <v>150</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
@@ -10124,12 +10124,12 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
@@ -10149,23 +10149,23 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>softsign</t>
+          <t>sigmoid</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>-6.780265947668998e-08</t>
+          <t>0.26441825344071845</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t>-6.780265947669007e-08</t>
+          <t>0.2708528693081548</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
-        <v>68</v>
+        <v>120</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
@@ -10174,12 +10174,12 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
@@ -10199,23 +10199,23 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>softsign</t>
+          <t>sigmoid</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>-6.780265947668998e-08</t>
+          <t>0.2634683741264386</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>-6.780265947669007e-08</t>
+          <t>0.26983186019909733</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
-        <v>67</v>
+        <v>140</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
@@ -10224,7 +10224,7 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -10249,23 +10249,23 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>softsign</t>
+          <t>sigmoid</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>-6.780265947668998e-08</t>
+          <t>0.2533310747081993</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>-6.780265947669007e-08</t>
+          <t>0.25896913224945417</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
@@ -10274,12 +10274,12 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
@@ -10299,23 +10299,23 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>softsign</t>
+          <t>tanh</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>-6.780265947668998e-08</t>
+          <t>0.22021422510957678</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>-6.780265947669007e-08</t>
+          <t>0.2238812411399132</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
-        <v>65</v>
+        <v>170</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
@@ -10324,12 +10324,12 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
@@ -10349,23 +10349,23 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>softsign</t>
+          <t>hard_sigmoid</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>-6.780265947668998e-08</t>
+          <t>0.19737343405099486</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>-6.780265947669007e-08</t>
+          <t>0.19999803736855487</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
-        <v>64</v>
+        <v>180</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
@@ -10374,7 +10374,7 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -10399,17 +10399,17 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>softsign</t>
+          <t>hard_sigmoid</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>-6.780265947668998e-08</t>
+          <t>0.19511121835098252</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>-6.780265947669007e-08</t>
+          <t>0.1976452106766063</t>
         </is>
       </c>
     </row>
@@ -10454,12 +10454,12 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>-0.3269584716970153</t>
+          <t>-0.3269597599798145</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
         <is>
-          <t>-0.3394188524892401</t>
+          <t>-0.3394202949772752</t>
         </is>
       </c>
     </row>
@@ -10504,12 +10504,12 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>-0.324912538775475</t>
+          <t>-0.3249124845749211</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
         <is>
-          <t>-0.3371297365535336</t>
+          <t>-0.33712967595578835</t>
         </is>
       </c>
     </row>
@@ -10554,12 +10554,12 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>-0.32443398718790445</t>
+          <t>-0.32443405557396027</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>-0.3365947953382864</t>
+          <t>-0.33659487176927166</t>
         </is>
       </c>
     </row>
@@ -10604,12 +10604,12 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>-0.3240146748329531</t>
+          <t>-0.3240146115812767</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
         <is>
-          <t>-0.3361262263358277</t>
+          <t>-0.33612615566470927</t>
         </is>
       </c>
     </row>
@@ -10654,12 +10654,12 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>-0.32376181656457126</t>
+          <t>-0.32376182346668336</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>-0.33584373355697344</t>
+          <t>-0.33584374126729466</t>
         </is>
       </c>
     </row>
@@ -10704,12 +10704,12 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>-0.3234900939064389</t>
+          <t>-0.3234899025626813</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
         <is>
-          <t>-0.3355402231056686</t>
+          <t>-0.3355400093983412</t>
         </is>
       </c>
     </row>
@@ -10754,12 +10754,12 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>-0.323398416918554</t>
+          <t>-0.3233985303193661</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>-0.3354378346253393</t>
+          <t>-0.3354379612716556</t>
         </is>
       </c>
     </row>
@@ -10804,12 +10804,12 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>-0.3232284457265207</t>
+          <t>-0.3232283624762535</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>-0.33524802202231013</t>
+          <t>-0.33524792905961665</t>
         </is>
       </c>
     </row>
@@ -10854,12 +10854,12 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>-0.32295337259594714</t>
+          <t>-0.3229533583340454</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>-0.33494088784791154</t>
+          <t>-0.3349408719252993</t>
         </is>
       </c>
     </row>
@@ -10904,12 +10904,12 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>-0.3225958748737763</t>
+          <t>-0.32259583729150293</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>-0.3345418131361504</t>
+          <t>-0.33454177118846135</t>
         </is>
       </c>
     </row>
@@ -10954,12 +10954,12 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>-0.3222175773635331</t>
+          <t>-0.32221753645735784</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
         <is>
-          <t>-0.3341196314834983</t>
+          <t>-0.33411958583824297</t>
         </is>
       </c>
     </row>
@@ -11004,12 +11004,12 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>-0.3218258034099515</t>
+          <t>-0.3218258527546349</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>-0.33368253109964957</t>
+          <t>-0.33368258614553825</t>
         </is>
       </c>
     </row>
@@ -11054,12 +11054,12 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>-0.32178105241741584</t>
+          <t>-0.32178105835548004</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>-0.3336326104523545</t>
+          <t>-0.33363261707628006</t>
         </is>
       </c>
     </row>
@@ -11104,12 +11104,12 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>-0.3213405453335815</t>
+          <t>-0.3213406765521409</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>-0.333141301331876</t>
+          <t>-0.333141447660275</t>
         </is>
       </c>
     </row>
@@ -11154,12 +11154,12 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>-0.32133945239737494</t>
+          <t>-0.32133946960566706</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>-0.33314008254441363</t>
+          <t>-0.3331401017342278</t>
         </is>
       </c>
     </row>
@@ -11204,12 +11204,12 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>-0.32096316498686883</t>
+          <t>-0.3209631285269318</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
         <is>
-          <t>-0.33272052247145545</t>
+          <t>-0.33272048182414</t>
         </is>
       </c>
     </row>
@@ -11254,12 +11254,12 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>-0.3207700010383872</t>
+          <t>-0.3207700157082096</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>-0.33250518876148516</t>
+          <t>-0.3325052051138588</t>
         </is>
       </c>
     </row>
@@ -11304,12 +11304,12 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>-0.32059571750650695</t>
+          <t>-0.3205957536679274</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
         <is>
-          <t>-0.3323109279315181</t>
+          <t>-0.3323109682354413</t>
         </is>
       </c>
     </row>
@@ -11354,12 +11354,12 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>-0.32049554355014753</t>
+          <t>-0.32049548241322934</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>-0.33219928245833624</t>
+          <t>-0.3321992143227049</t>
         </is>
       </c>
     </row>
@@ -11404,12 +11404,12 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>-0.32039389021697223</t>
+          <t>-0.3203938954799047</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>-0.33208599636310937</t>
+          <t>-0.3320860022280959</t>
         </is>
       </c>
     </row>
@@ -11454,12 +11454,12 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>-0.3200533410867414</t>
+          <t>-0.3200532961588886</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>-0.33170653617970935</t>
+          <t>-0.33170648612449427</t>
         </is>
       </c>
     </row>
@@ -11504,12 +11504,12 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>-0.31964082233808033</t>
+          <t>-0.3196408107877929</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
         <is>
-          <t>-0.33124700654982514</t>
+          <t>-0.33124699368515076</t>
         </is>
       </c>
     </row>
@@ -11554,12 +11554,12 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>-0.31962454815506297</t>
+          <t>-0.31962453929207435</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>-0.33122888052000093</t>
+          <t>-0.3312288706485459</t>
         </is>
       </c>
     </row>
@@ -11604,12 +11604,12 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>-0.3192411538282864</t>
+          <t>-0.3192411316205319</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
         <is>
-          <t>-0.3308019202975454</t>
+          <t>-0.3308018955696497</t>
         </is>
       </c>
     </row>
@@ -11654,12 +11654,12 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>-0.31922265078844375</t>
+          <t>-0.31922261041293987</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
         <is>
-          <t>-0.3307813176637398</t>
+          <t>-0.33078127270700586</t>
         </is>
       </c>
     </row>
@@ -11704,12 +11704,12 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>-0.3192123200281241</t>
+          <t>-0.31921228856362904</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t>-0.33076981475977185</t>
+          <t>-0.3307697797253968</t>
         </is>
       </c>
     </row>
@@ -11754,12 +11754,12 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>-0.31914905202753635</t>
+          <t>-0.31914896024612555</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>-0.3306993701190728</t>
+          <t>-0.3306992679289787</t>
         </is>
       </c>
     </row>
@@ -11804,12 +11804,12 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>-0.31891193094898307</t>
+          <t>-0.3189119518048328</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>-0.33043538000492023</t>
+          <t>-0.3304354032220656</t>
         </is>
       </c>
     </row>
@@ -11854,12 +11854,12 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>-0.3185803674005226</t>
+          <t>-0.31858038728269766</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
         <is>
-          <t>-0.33006632031655514</t>
+          <t>-0.33006634244457994</t>
         </is>
       </c>
     </row>
@@ -11904,12 +11904,12 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>-0.3185546100707222</t>
+          <t>-0.3185545491753552</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
         <is>
-          <t>-0.3300376537535901</t>
+          <t>-0.33003758598084715</t>
         </is>
       </c>
     </row>
@@ -11954,12 +11954,12 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>-0.3181836717754018</t>
+          <t>-0.3181837413025081</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t>-0.329624876832668</t>
+          <t>-0.3296249541916667</t>
         </is>
       </c>
     </row>
@@ -12004,12 +12004,12 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>-0.3177565403890519</t>
+          <t>-0.31775656132784363</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
         <is>
-          <t>-0.329149702990012</t>
+          <t>-0.329149726280418</t>
         </is>
       </c>
     </row>
@@ -12054,12 +12054,12 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>-0.31766286968619983</t>
+          <t>-0.3176626401325742</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
         <is>
-          <t>-0.329045515676201</t>
+          <t>-0.32904526035856857</t>
         </is>
       </c>
     </row>
@@ -12104,12 +12104,12 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>-0.31652912261277094</t>
+          <t>-0.31652871259251025</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
         <is>
-          <t>-0.32778502637058843</t>
+          <t>-0.3277845706960418</t>
         </is>
       </c>
     </row>
@@ -12154,12 +12154,12 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>-0.31577852839043535</t>
+          <t>-0.31577849129804747</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>-0.32695107605446083</t>
+          <t>-0.32695103485369453</t>
         </is>
       </c>
     </row>
@@ -12204,12 +12204,12 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>-0.30175774510854186</t>
+          <t>-0.30175745066825727</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
         <is>
-          <t>-0.31145231459962175</t>
+          <t>-0.3114519906623732</t>
         </is>
       </c>
     </row>
@@ -12254,12 +12254,12 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>-0.25829226083763446</t>
+          <t>-0.2582923935796216</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
         <is>
-          <t>-0.26427772452179843</t>
+          <t>-0.26427786675271037</t>
         </is>
       </c>
     </row>
@@ -12304,12 +12304,12 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>-0.2580998996312248</t>
+          <t>-0.2580997200467479</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
         <is>
-          <t>-0.2640716235487145</t>
+          <t>-0.26407143114732023</t>
         </is>
       </c>
     </row>
@@ -12354,12 +12354,12 @@
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>-0.190249105471488</t>
+          <t>-0.19024864421343468</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
         <is>
-          <t>-0.19259561688981486</t>
+          <t>-0.19259513830973038</t>
         </is>
       </c>
     </row>
@@ -12404,12 +12404,12 @@
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>-0.11371223341247524</t>
+          <t>-0.11371234784342249</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
         <is>
-          <t>-0.11420618897834382</t>
+          <t>-0.11420630490832188</t>
         </is>
       </c>
     </row>
